--- a/Code/Results/Cases/Case_0_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9953932682767733</v>
+        <v>1.026400566431506</v>
       </c>
       <c r="D2">
-        <v>1.008020582163016</v>
+        <v>1.034032452575097</v>
       </c>
       <c r="E2">
-        <v>1.002483725093514</v>
+        <v>1.026631291024233</v>
       </c>
       <c r="F2">
-        <v>1.009677883376273</v>
+        <v>1.041131495943915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041760491319498</v>
+        <v>1.029884742224066</v>
       </c>
       <c r="J2">
-        <v>1.017712644399877</v>
+        <v>1.031564217223217</v>
       </c>
       <c r="K2">
-        <v>1.01936929710192</v>
+        <v>1.036833092325719</v>
       </c>
       <c r="L2">
-        <v>1.013908565794502</v>
+        <v>1.029453373643026</v>
       </c>
       <c r="M2">
-        <v>1.021004016559433</v>
+        <v>1.043911879158821</v>
       </c>
       <c r="N2">
-        <v>1.009823532664946</v>
+        <v>1.014540865664894</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9994812732140979</v>
+        <v>1.027272379534459</v>
       </c>
       <c r="D3">
-        <v>1.011513221947624</v>
+        <v>1.034831428721074</v>
       </c>
       <c r="E3">
-        <v>1.005710407195335</v>
+        <v>1.027369414943965</v>
       </c>
       <c r="F3">
-        <v>1.013795603116068</v>
+        <v>1.042088092640608</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042410664999599</v>
+        <v>1.029956334752582</v>
       </c>
       <c r="J3">
-        <v>1.019986089240532</v>
+        <v>1.032076174201258</v>
       </c>
       <c r="K3">
-        <v>1.022000878261749</v>
+        <v>1.037441199128077</v>
       </c>
       <c r="L3">
-        <v>1.016270740007968</v>
+        <v>1.029999240676111</v>
       </c>
       <c r="M3">
-        <v>1.024254957925963</v>
+        <v>1.044678657292176</v>
       </c>
       <c r="N3">
-        <v>1.010589766513324</v>
+        <v>1.014711986659328</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002076145903633</v>
+        <v>1.027837009318187</v>
       </c>
       <c r="D4">
-        <v>1.013735744681362</v>
+        <v>1.035349252805494</v>
       </c>
       <c r="E4">
-        <v>1.007764610685755</v>
+        <v>1.027847856257405</v>
       </c>
       <c r="F4">
-        <v>1.016416509122384</v>
+        <v>1.042708261488899</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042811553299457</v>
+        <v>1.030001226733613</v>
       </c>
       <c r="J4">
-        <v>1.021426892345094</v>
+        <v>1.032407321195355</v>
       </c>
       <c r="K4">
-        <v>1.023671170483845</v>
+        <v>1.037834864291048</v>
       </c>
       <c r="L4">
-        <v>1.017770218346524</v>
+        <v>1.030352613223806</v>
       </c>
       <c r="M4">
-        <v>1.02632075801623</v>
+        <v>1.045175379219029</v>
       </c>
       <c r="N4">
-        <v>1.011075175944258</v>
+        <v>1.014822625204805</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003155365276798</v>
+        <v>1.028074499956901</v>
       </c>
       <c r="D5">
-        <v>1.014661402949158</v>
+        <v>1.035567143824146</v>
       </c>
       <c r="E5">
-        <v>1.008620377329821</v>
+        <v>1.028049188985686</v>
       </c>
       <c r="F5">
-        <v>1.01750825753117</v>
+        <v>1.04296926291471</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04297540809095</v>
+        <v>1.030019755601217</v>
       </c>
       <c r="J5">
-        <v>1.022025551771002</v>
+        <v>1.032546504633057</v>
       </c>
       <c r="K5">
-        <v>1.024365794470435</v>
+        <v>1.038000402731597</v>
       </c>
       <c r="L5">
-        <v>1.01839384456277</v>
+        <v>1.030501208066205</v>
       </c>
       <c r="M5">
-        <v>1.027180447245859</v>
+        <v>1.045384334925596</v>
       </c>
       <c r="N5">
-        <v>1.011276816365757</v>
+        <v>1.014869116086939</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003335897820971</v>
+        <v>1.028114382691588</v>
       </c>
       <c r="D6">
-        <v>1.014816323220426</v>
+        <v>1.035603740233915</v>
       </c>
       <c r="E6">
-        <v>1.008763612548837</v>
+        <v>1.028083005080948</v>
       </c>
       <c r="F6">
-        <v>1.01769098542939</v>
+        <v>1.043013102716152</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043002647522064</v>
+        <v>1.030022846505706</v>
       </c>
       <c r="J6">
-        <v>1.022125661083512</v>
+        <v>1.032569872305646</v>
       </c>
       <c r="K6">
-        <v>1.024481987322388</v>
+        <v>1.038028199764943</v>
       </c>
       <c r="L6">
-        <v>1.018498163423987</v>
+        <v>1.030526159927373</v>
       </c>
       <c r="M6">
-        <v>1.027324286039283</v>
+        <v>1.045419427311136</v>
       </c>
       <c r="N6">
-        <v>1.011310532211818</v>
+        <v>1.014876920833047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002090611821988</v>
+        <v>1.027840182208912</v>
       </c>
       <c r="D7">
-        <v>1.013748147162929</v>
+        <v>1.035352163500932</v>
       </c>
       <c r="E7">
-        <v>1.00777607589761</v>
+        <v>1.027850545707158</v>
       </c>
       <c r="F7">
-        <v>1.016431136284976</v>
+        <v>1.042711747895033</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042813761033857</v>
+        <v>1.030001475668608</v>
       </c>
       <c r="J7">
-        <v>1.021434919131174</v>
+        <v>1.032409181093649</v>
       </c>
       <c r="K7">
-        <v>1.023680481534097</v>
+        <v>1.037837076061994</v>
       </c>
       <c r="L7">
-        <v>1.017778577565194</v>
+        <v>1.03035459861152</v>
       </c>
       <c r="M7">
-        <v>1.026332279347666</v>
+        <v>1.045178170771515</v>
       </c>
       <c r="N7">
-        <v>1.011077879723298</v>
+        <v>1.014823246503541</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9967854901525314</v>
+        <v>1.026695093617157</v>
       </c>
       <c r="D8">
-        <v>1.009208859543301</v>
+        <v>1.034302296802897</v>
       </c>
       <c r="E8">
-        <v>1.003581318891125</v>
+        <v>1.02688057145773</v>
       </c>
       <c r="F8">
-        <v>1.011078710523737</v>
+        <v>1.04145453552355</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041984364550579</v>
+        <v>1.029909233631144</v>
       </c>
       <c r="J8">
-        <v>1.018487351208069</v>
+        <v>1.031737260301813</v>
       </c>
       <c r="K8">
-        <v>1.020265519266102</v>
+        <v>1.037038566913707</v>
       </c>
       <c r="L8">
-        <v>1.014712996490139</v>
+        <v>1.029637818036755</v>
       </c>
       <c r="M8">
-        <v>1.022110676006392</v>
+        <v>1.044170897486751</v>
       </c>
       <c r="N8">
-        <v>1.010084676149126</v>
+        <v>1.014598714792946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.987033371929193</v>
+        <v>1.024681258565475</v>
       </c>
       <c r="D9">
-        <v>1.000910273530386</v>
+        <v>1.032458751847278</v>
       </c>
       <c r="E9">
-        <v>0.9959203250400578</v>
+        <v>1.025177752198166</v>
       </c>
       <c r="F9">
-        <v>1.001297516648913</v>
+        <v>1.039248330839986</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040367955307205</v>
+        <v>1.029735742232992</v>
       </c>
       <c r="J9">
-        <v>1.013052473537951</v>
+        <v>1.030552358579559</v>
       </c>
       <c r="K9">
-        <v>1.013988599425457</v>
+        <v>1.035632925071636</v>
       </c>
       <c r="L9">
-        <v>1.009079940734364</v>
+        <v>1.028376042465975</v>
       </c>
       <c r="M9">
-        <v>1.01436957756946</v>
+        <v>1.042400348429325</v>
       </c>
       <c r="N9">
-        <v>1.008251935967447</v>
+        <v>1.014202405821839</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9802334386196548</v>
+        <v>1.023341447639096</v>
       </c>
       <c r="D10">
-        <v>0.9951572162748247</v>
+        <v>1.031234160691762</v>
       </c>
       <c r="E10">
-        <v>0.9906151764081813</v>
+        <v>1.024046942640372</v>
       </c>
       <c r="F10">
-        <v>0.99451794926799</v>
+        <v>1.037783789272259</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039181545326742</v>
+        <v>1.029612756355588</v>
       </c>
       <c r="J10">
-        <v>1.009253864021235</v>
+        <v>1.029761896901536</v>
       </c>
       <c r="K10">
-        <v>1.009614462671116</v>
+        <v>1.034696873915861</v>
       </c>
       <c r="L10">
-        <v>1.005155969666613</v>
+        <v>1.027535798831327</v>
       </c>
       <c r="M10">
-        <v>1.008986894333528</v>
+        <v>1.041223026660876</v>
       </c>
       <c r="N10">
-        <v>1.006970185464042</v>
+        <v>1.013937786002679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9772117028334246</v>
+        <v>1.022761963723839</v>
       </c>
       <c r="D11">
-        <v>0.9926091744080385</v>
+        <v>1.030704972910832</v>
       </c>
       <c r="E11">
-        <v>0.9882670684123799</v>
+        <v>1.023558355244561</v>
       </c>
       <c r="F11">
-        <v>0.991515262901052</v>
+        <v>1.037151132757426</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038640886170611</v>
+        <v>1.02955777241367</v>
       </c>
       <c r="J11">
-        <v>1.007564221505559</v>
+        <v>1.029419508363509</v>
       </c>
       <c r="K11">
-        <v>1.007671829915678</v>
+        <v>1.03429181765108</v>
       </c>
       <c r="L11">
-        <v>1.003413695319344</v>
+        <v>1.027172203264515</v>
       </c>
       <c r="M11">
-        <v>1.006598982634355</v>
+        <v>1.040713974111341</v>
       </c>
       <c r="N11">
-        <v>1.006399906480848</v>
+        <v>1.013823110175228</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9760770867727964</v>
+        <v>1.022546818618036</v>
       </c>
       <c r="D12">
-        <v>0.9916537495573605</v>
+        <v>1.030508571183049</v>
       </c>
       <c r="E12">
-        <v>0.9873868590543106</v>
+        <v>1.023377033189978</v>
       </c>
       <c r="F12">
-        <v>0.9903893346219466</v>
+        <v>1.036916362948433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03843591130576</v>
+        <v>1.029537089576438</v>
       </c>
       <c r="J12">
-        <v>1.006929586557453</v>
+        <v>1.029292314182936</v>
       </c>
       <c r="K12">
-        <v>1.006942616662276</v>
+        <v>1.034141402128782</v>
       </c>
       <c r="L12">
-        <v>1.002759763267965</v>
+        <v>1.027037184359854</v>
       </c>
       <c r="M12">
-        <v>1.005703005482156</v>
+        <v>1.040525001333464</v>
       </c>
       <c r="N12">
-        <v>1.006185688766925</v>
+        <v>1.013780500839205</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9763210281754082</v>
+        <v>1.022592963379513</v>
       </c>
       <c r="D13">
-        <v>0.9918591042318229</v>
+        <v>1.03055069265457</v>
       </c>
       <c r="E13">
-        <v>0.987576035840237</v>
+        <v>1.023415920070449</v>
       </c>
       <c r="F13">
-        <v>0.9906313382508219</v>
+        <v>1.036966711570583</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038480068635766</v>
+        <v>1.029541537841923</v>
       </c>
       <c r="J13">
-        <v>1.00706604077449</v>
+        <v>1.029319598463531</v>
       </c>
       <c r="K13">
-        <v>1.007099386326477</v>
+        <v>1.034173664918809</v>
       </c>
       <c r="L13">
-        <v>1.002900345262171</v>
+        <v>1.027066144692603</v>
       </c>
       <c r="M13">
-        <v>1.005895609782838</v>
+        <v>1.040565531543307</v>
       </c>
       <c r="N13">
-        <v>1.006231748988732</v>
+        <v>1.013789641295895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9771181677317738</v>
+        <v>1.022744177693325</v>
       </c>
       <c r="D14">
-        <v>0.992530384141072</v>
+        <v>1.030688734964684</v>
       </c>
       <c r="E14">
-        <v>0.988194475767052</v>
+        <v>1.02354336381151</v>
       </c>
       <c r="F14">
-        <v>0.991422412595525</v>
+        <v>1.037131721971509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038624028162785</v>
+        <v>1.029556068051163</v>
       </c>
       <c r="J14">
-        <v>1.007511907478407</v>
+        <v>1.029408994768869</v>
       </c>
       <c r="K14">
-        <v>1.007611710615969</v>
+        <v>1.034279383425002</v>
       </c>
       <c r="L14">
-        <v>1.003359781003353</v>
+        <v>1.027161041803997</v>
       </c>
       <c r="M14">
-        <v>1.006525106952647</v>
+        <v>1.040698351269048</v>
       </c>
       <c r="N14">
-        <v>1.006382248524736</v>
+        <v>1.013819588349625</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9776076755729122</v>
+        <v>1.022837359251231</v>
       </c>
       <c r="D15">
-        <v>0.9929427805618338</v>
+        <v>1.03077380892809</v>
       </c>
       <c r="E15">
-        <v>0.9885744433727066</v>
+        <v>1.023621907499633</v>
       </c>
       <c r="F15">
-        <v>0.991908399405984</v>
+        <v>1.037233420454301</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038712173267426</v>
+        <v>1.029564986243692</v>
       </c>
       <c r="J15">
-        <v>1.007785680526766</v>
+        <v>1.029464072721145</v>
       </c>
       <c r="K15">
-        <v>1.007926348837484</v>
+        <v>1.034344525480508</v>
       </c>
       <c r="L15">
-        <v>1.00364194801926</v>
+        <v>1.027219515945412</v>
       </c>
       <c r="M15">
-        <v>1.006911755584339</v>
+        <v>1.040780200772182</v>
       </c>
       <c r="N15">
-        <v>1.006474656486366</v>
+        <v>1.013838037925433</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9804323025173823</v>
+        <v>1.023379920167769</v>
       </c>
       <c r="D16">
-        <v>0.9953250870670717</v>
+        <v>1.031269303792638</v>
       </c>
       <c r="E16">
-        <v>0.9907699087167459</v>
+        <v>1.024079391068842</v>
       </c>
       <c r="F16">
-        <v>0.9947157707279184</v>
+        <v>1.037825808341151</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039216850930771</v>
+        <v>1.029616369055383</v>
       </c>
       <c r="J16">
-        <v>1.009365031146023</v>
+        <v>1.029784617814647</v>
       </c>
       <c r="K16">
-        <v>1.009742337016207</v>
+        <v>1.03472376175957</v>
       </c>
       <c r="L16">
-        <v>1.005270664959392</v>
+        <v>1.027559934543811</v>
       </c>
       <c r="M16">
-        <v>1.009144133088945</v>
+        <v>1.041256826426932</v>
       </c>
       <c r="N16">
-        <v>1.007007703152047</v>
+        <v>1.013945394723911</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9821830091011378</v>
+        <v>1.023720432806475</v>
       </c>
       <c r="D17">
-        <v>0.9968039175929678</v>
+        <v>1.031580401823241</v>
       </c>
       <c r="E17">
-        <v>0.9921331769546324</v>
+        <v>1.024366643590362</v>
       </c>
       <c r="F17">
-        <v>0.9964584434161843</v>
+        <v>1.03819780029888</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039526139630135</v>
+        <v>1.02964813732107</v>
       </c>
       <c r="J17">
-        <v>1.010343515457877</v>
+        <v>1.029985657770503</v>
       </c>
       <c r="K17">
-        <v>1.010868218743689</v>
+        <v>1.034961717228879</v>
       </c>
       <c r="L17">
-        <v>1.006280560532479</v>
+        <v>1.027773534097992</v>
       </c>
       <c r="M17">
-        <v>1.010528855210612</v>
+        <v>1.041555999090831</v>
       </c>
       <c r="N17">
-        <v>1.007337914292328</v>
+        <v>1.014012712038719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9831967483420461</v>
+        <v>1.023919111948618</v>
       </c>
       <c r="D18">
-        <v>0.9976610308420996</v>
+        <v>1.031761963001058</v>
       </c>
       <c r="E18">
-        <v>0.9929234586157031</v>
+        <v>1.024534295344343</v>
       </c>
       <c r="F18">
-        <v>0.9974684783766291</v>
+        <v>1.038414921495481</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039703950895702</v>
+        <v>1.029666500229352</v>
       </c>
       <c r="J18">
-        <v>1.010909945079228</v>
+        <v>1.030102909951584</v>
       </c>
       <c r="K18">
-        <v>1.011520260448495</v>
+        <v>1.035100537630768</v>
       </c>
       <c r="L18">
-        <v>1.006865470717987</v>
+        <v>1.02789814573653</v>
       </c>
       <c r="M18">
-        <v>1.011331052726211</v>
+        <v>1.041730572313065</v>
       </c>
       <c r="N18">
-        <v>1.007529054086602</v>
+        <v>1.014051968018759</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9835411663336675</v>
+        <v>1.023986867194393</v>
       </c>
       <c r="D19">
-        <v>0.9979523698040479</v>
+        <v>1.031823888083389</v>
       </c>
       <c r="E19">
-        <v>0.9931921055667086</v>
+        <v>1.024591477545713</v>
       </c>
       <c r="F19">
-        <v>0.9978117976498836</v>
+        <v>1.038488978684883</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03976414338688</v>
+        <v>1.029672733165063</v>
       </c>
       <c r="J19">
-        <v>1.011102361555134</v>
+        <v>1.03014288800872</v>
       </c>
       <c r="K19">
-        <v>1.011741808095446</v>
+        <v>1.035147876000528</v>
       </c>
       <c r="L19">
-        <v>1.007064215407021</v>
+        <v>1.027940638884277</v>
       </c>
       <c r="M19">
-        <v>1.011603662639571</v>
+        <v>1.041790109245549</v>
       </c>
       <c r="N19">
-        <v>1.007593981849799</v>
+        <v>1.014065351741245</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9819959463237735</v>
+        <v>1.023683892405252</v>
       </c>
       <c r="D20">
-        <v>0.9966458211203235</v>
+        <v>1.031547013286993</v>
       </c>
       <c r="E20">
-        <v>0.9919874194933579</v>
+        <v>1.024335813528054</v>
       </c>
       <c r="F20">
-        <v>0.9962721405301744</v>
+        <v>1.038157874115424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039493224666024</v>
+        <v>1.029644746154403</v>
       </c>
       <c r="J20">
-        <v>1.010238980565104</v>
+        <v>1.029964089217392</v>
       </c>
       <c r="K20">
-        <v>1.010747907249604</v>
+        <v>1.034936184263215</v>
       </c>
       <c r="L20">
-        <v>1.006172639039679</v>
+        <v>1.027750614536941</v>
       </c>
       <c r="M20">
-        <v>1.010380858114833</v>
+        <v>1.041523893354208</v>
       </c>
       <c r="N20">
-        <v>1.007302638153972</v>
+        <v>1.014005490462909</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9768837719728491</v>
+        <v>1.022699646046828</v>
       </c>
       <c r="D21">
-        <v>0.992332959981688</v>
+        <v>1.03064808045462</v>
       </c>
       <c r="E21">
-        <v>0.9880125849763353</v>
+        <v>1.023505830346454</v>
       </c>
       <c r="F21">
-        <v>0.9911897577595525</v>
+        <v>1.037083124241651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038581751092163</v>
+        <v>1.029551796421319</v>
       </c>
       <c r="J21">
-        <v>1.007380807255925</v>
+        <v>1.029382670212461</v>
       </c>
       <c r="K21">
-        <v>1.007461057349284</v>
+        <v>1.034248250833645</v>
       </c>
       <c r="L21">
-        <v>1.003224678021161</v>
+        <v>1.027133095947006</v>
       </c>
       <c r="M21">
-        <v>1.006339987606494</v>
+        <v>1.040659236066358</v>
       </c>
       <c r="N21">
-        <v>1.006337996960284</v>
+        <v>1.013810770061297</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9735985869445037</v>
+        <v>1.02208139647598</v>
       </c>
       <c r="D22">
-        <v>0.9895691787123202</v>
+        <v>1.030083824837104</v>
       </c>
       <c r="E22">
-        <v>0.9854668656842061</v>
+        <v>1.02298491966089</v>
       </c>
       <c r="F22">
-        <v>0.9879326719342927</v>
+        <v>1.036408700466659</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037984604941489</v>
+        <v>1.029491854993712</v>
       </c>
       <c r="J22">
-        <v>1.005542948667553</v>
+        <v>1.029017018001763</v>
       </c>
       <c r="K22">
-        <v>1.005350143467084</v>
+        <v>1.033815954242299</v>
       </c>
       <c r="L22">
-        <v>1.001331831130412</v>
+        <v>1.026745050350977</v>
       </c>
       <c r="M22">
-        <v>1.003747036196192</v>
+        <v>1.040116240477362</v>
       </c>
       <c r="N22">
-        <v>1.005717604788938</v>
+        <v>1.013688262992526</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9753470595623932</v>
+        <v>1.022409086332849</v>
       </c>
       <c r="D23">
-        <v>0.9910393967202669</v>
+        <v>1.030382857836031</v>
       </c>
       <c r="E23">
-        <v>0.9868209424314038</v>
+        <v>1.023260975291673</v>
       </c>
       <c r="F23">
-        <v>0.9896653340133649</v>
+        <v>1.036766100143251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03830348086111</v>
+        <v>1.02952377308486</v>
       </c>
       <c r="J23">
-        <v>1.006521203354287</v>
+        <v>1.029210865380427</v>
       </c>
       <c r="K23">
-        <v>1.006473497767014</v>
+        <v>1.034045100173764</v>
       </c>
       <c r="L23">
-        <v>1.002339095591711</v>
+        <v>1.026950740053507</v>
       </c>
       <c r="M23">
-        <v>1.005126709633597</v>
+        <v>1.040404030717127</v>
       </c>
       <c r="N23">
-        <v>1.006047836159419</v>
+        <v>1.013753213610234</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9820804948226771</v>
+        <v>1.023700403242463</v>
       </c>
       <c r="D24">
-        <v>0.9967172749654651</v>
+        <v>1.031562099811399</v>
       </c>
       <c r="E24">
-        <v>0.9920532961005427</v>
+        <v>1.024349743990518</v>
       </c>
       <c r="F24">
-        <v>0.9963563426386863</v>
+        <v>1.038175914592582</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039508105522824</v>
+        <v>1.029646278992668</v>
       </c>
       <c r="J24">
-        <v>1.010286228662225</v>
+        <v>1.029973835152332</v>
       </c>
       <c r="K24">
-        <v>1.010802285230778</v>
+        <v>1.034947721434242</v>
       </c>
       <c r="L24">
-        <v>1.006221416904915</v>
+        <v>1.027760970830239</v>
       </c>
       <c r="M24">
-        <v>1.010447748560373</v>
+        <v>1.041538400335805</v>
       </c>
       <c r="N24">
-        <v>1.007318582448326</v>
+        <v>1.014008753610247</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9896050661351862</v>
+        <v>1.025201405476731</v>
       </c>
       <c r="D25">
-        <v>1.003093084231633</v>
+        <v>1.032934577305623</v>
       </c>
       <c r="E25">
-        <v>0.9979344569750308</v>
+        <v>1.025617203054928</v>
       </c>
       <c r="F25">
-        <v>1.003869975368341</v>
+        <v>1.039817591327277</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0408046542253</v>
+        <v>1.029781887672494</v>
       </c>
       <c r="J25">
-        <v>1.014487397846747</v>
+        <v>1.030858782281178</v>
       </c>
       <c r="K25">
-        <v>1.015643573064047</v>
+        <v>1.035996139111766</v>
       </c>
       <c r="L25">
-        <v>1.010564922687777</v>
+        <v>1.028702081649963</v>
       </c>
       <c r="M25">
-        <v>1.01640851054594</v>
+        <v>1.042857547762743</v>
       </c>
       <c r="N25">
-        <v>1.008735967248844</v>
+        <v>1.014304936094387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026400566431506</v>
+        <v>0.9953932682767728</v>
       </c>
       <c r="D2">
-        <v>1.034032452575097</v>
+        <v>1.008020582163016</v>
       </c>
       <c r="E2">
-        <v>1.026631291024233</v>
+        <v>1.002483725093514</v>
       </c>
       <c r="F2">
-        <v>1.041131495943915</v>
+        <v>1.009677883376272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029884742224066</v>
+        <v>1.041760491319498</v>
       </c>
       <c r="J2">
-        <v>1.031564217223217</v>
+        <v>1.017712644399876</v>
       </c>
       <c r="K2">
-        <v>1.036833092325719</v>
+        <v>1.019369297101919</v>
       </c>
       <c r="L2">
-        <v>1.029453373643026</v>
+        <v>1.013908565794502</v>
       </c>
       <c r="M2">
-        <v>1.043911879158821</v>
+        <v>1.021004016559433</v>
       </c>
       <c r="N2">
-        <v>1.014540865664894</v>
+        <v>1.009823532664946</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027272379534459</v>
+        <v>0.9994812732140966</v>
       </c>
       <c r="D3">
-        <v>1.034831428721074</v>
+        <v>1.011513221947622</v>
       </c>
       <c r="E3">
-        <v>1.027369414943965</v>
+        <v>1.005710407195334</v>
       </c>
       <c r="F3">
-        <v>1.042088092640608</v>
+        <v>1.013795603116067</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029956334752582</v>
+        <v>1.042410664999599</v>
       </c>
       <c r="J3">
-        <v>1.032076174201258</v>
+        <v>1.019986089240531</v>
       </c>
       <c r="K3">
-        <v>1.037441199128077</v>
+        <v>1.022000878261748</v>
       </c>
       <c r="L3">
-        <v>1.029999240676111</v>
+        <v>1.016270740007967</v>
       </c>
       <c r="M3">
-        <v>1.044678657292176</v>
+        <v>1.024254957925961</v>
       </c>
       <c r="N3">
-        <v>1.014711986659328</v>
+        <v>1.010589766513324</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027837009318187</v>
+        <v>1.002076145903634</v>
       </c>
       <c r="D4">
-        <v>1.035349252805494</v>
+        <v>1.013735744681362</v>
       </c>
       <c r="E4">
-        <v>1.027847856257405</v>
+        <v>1.007764610685755</v>
       </c>
       <c r="F4">
-        <v>1.042708261488899</v>
+        <v>1.016416509122384</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030001226733613</v>
+        <v>1.042811553299457</v>
       </c>
       <c r="J4">
-        <v>1.032407321195355</v>
+        <v>1.021426892345094</v>
       </c>
       <c r="K4">
-        <v>1.037834864291048</v>
+        <v>1.023671170483845</v>
       </c>
       <c r="L4">
-        <v>1.030352613223806</v>
+        <v>1.017770218346524</v>
       </c>
       <c r="M4">
-        <v>1.045175379219029</v>
+        <v>1.026320758016229</v>
       </c>
       <c r="N4">
-        <v>1.014822625204805</v>
+        <v>1.011075175944259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028074499956901</v>
+        <v>1.003155365276797</v>
       </c>
       <c r="D5">
-        <v>1.035567143824146</v>
+        <v>1.014661402949156</v>
       </c>
       <c r="E5">
-        <v>1.028049188985686</v>
+        <v>1.00862037732982</v>
       </c>
       <c r="F5">
-        <v>1.04296926291471</v>
+        <v>1.017508257531169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030019755601217</v>
+        <v>1.042975408090949</v>
       </c>
       <c r="J5">
-        <v>1.032546504633057</v>
+        <v>1.022025551771001</v>
       </c>
       <c r="K5">
-        <v>1.038000402731597</v>
+        <v>1.024365794470434</v>
       </c>
       <c r="L5">
-        <v>1.030501208066205</v>
+        <v>1.018393844562768</v>
       </c>
       <c r="M5">
-        <v>1.045384334925596</v>
+        <v>1.027180447245858</v>
       </c>
       <c r="N5">
-        <v>1.014869116086939</v>
+        <v>1.011276816365757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028114382691588</v>
+        <v>1.003335897820971</v>
       </c>
       <c r="D6">
-        <v>1.035603740233915</v>
+        <v>1.014816323220426</v>
       </c>
       <c r="E6">
-        <v>1.028083005080948</v>
+        <v>1.008763612548837</v>
       </c>
       <c r="F6">
-        <v>1.043013102716152</v>
+        <v>1.017690985429391</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030022846505706</v>
+        <v>1.043002647522064</v>
       </c>
       <c r="J6">
-        <v>1.032569872305646</v>
+        <v>1.022125661083512</v>
       </c>
       <c r="K6">
-        <v>1.038028199764943</v>
+        <v>1.024481987322388</v>
       </c>
       <c r="L6">
-        <v>1.030526159927373</v>
+        <v>1.018498163423987</v>
       </c>
       <c r="M6">
-        <v>1.045419427311136</v>
+        <v>1.027324286039283</v>
       </c>
       <c r="N6">
-        <v>1.014876920833047</v>
+        <v>1.011310532211818</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027840182208912</v>
+        <v>1.002090611821988</v>
       </c>
       <c r="D7">
-        <v>1.035352163500932</v>
+        <v>1.013748147162929</v>
       </c>
       <c r="E7">
-        <v>1.027850545707158</v>
+        <v>1.00777607589761</v>
       </c>
       <c r="F7">
-        <v>1.042711747895033</v>
+        <v>1.016431136284976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030001475668608</v>
+        <v>1.042813761033857</v>
       </c>
       <c r="J7">
-        <v>1.032409181093649</v>
+        <v>1.021434919131174</v>
       </c>
       <c r="K7">
-        <v>1.037837076061994</v>
+        <v>1.023680481534097</v>
       </c>
       <c r="L7">
-        <v>1.03035459861152</v>
+        <v>1.017778577565194</v>
       </c>
       <c r="M7">
-        <v>1.045178170771515</v>
+        <v>1.026332279347666</v>
       </c>
       <c r="N7">
-        <v>1.014823246503541</v>
+        <v>1.011077879723298</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026695093617157</v>
+        <v>0.9967854901525304</v>
       </c>
       <c r="D8">
-        <v>1.034302296802897</v>
+        <v>1.0092088595433</v>
       </c>
       <c r="E8">
-        <v>1.02688057145773</v>
+        <v>1.003581318891124</v>
       </c>
       <c r="F8">
-        <v>1.04145453552355</v>
+        <v>1.011078710523737</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029909233631144</v>
+        <v>1.041984364550579</v>
       </c>
       <c r="J8">
-        <v>1.031737260301813</v>
+        <v>1.018487351208069</v>
       </c>
       <c r="K8">
-        <v>1.037038566913707</v>
+        <v>1.020265519266102</v>
       </c>
       <c r="L8">
-        <v>1.029637818036755</v>
+        <v>1.014712996490138</v>
       </c>
       <c r="M8">
-        <v>1.044170897486751</v>
+        <v>1.022110676006392</v>
       </c>
       <c r="N8">
-        <v>1.014598714792946</v>
+        <v>1.010084676149126</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024681258565475</v>
+        <v>0.9870333719291937</v>
       </c>
       <c r="D9">
-        <v>1.032458751847278</v>
+        <v>1.000910273530386</v>
       </c>
       <c r="E9">
-        <v>1.025177752198166</v>
+        <v>0.9959203250400581</v>
       </c>
       <c r="F9">
-        <v>1.039248330839986</v>
+        <v>1.001297516648914</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029735742232992</v>
+        <v>1.040367955307206</v>
       </c>
       <c r="J9">
-        <v>1.030552358579559</v>
+        <v>1.013052473537951</v>
       </c>
       <c r="K9">
-        <v>1.035632925071636</v>
+        <v>1.013988599425458</v>
       </c>
       <c r="L9">
-        <v>1.028376042465975</v>
+        <v>1.009079940734365</v>
       </c>
       <c r="M9">
-        <v>1.042400348429325</v>
+        <v>1.014369577569461</v>
       </c>
       <c r="N9">
-        <v>1.014202405821839</v>
+        <v>1.008251935967447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023341447639096</v>
+        <v>0.9802334386196546</v>
       </c>
       <c r="D10">
-        <v>1.031234160691762</v>
+        <v>0.9951572162748246</v>
       </c>
       <c r="E10">
-        <v>1.024046942640372</v>
+        <v>0.9906151764081804</v>
       </c>
       <c r="F10">
-        <v>1.037783789272259</v>
+        <v>0.9945179492679894</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029612756355588</v>
+        <v>1.039181545326742</v>
       </c>
       <c r="J10">
-        <v>1.029761896901536</v>
+        <v>1.009253864021235</v>
       </c>
       <c r="K10">
-        <v>1.034696873915861</v>
+        <v>1.009614462671115</v>
       </c>
       <c r="L10">
-        <v>1.027535798831327</v>
+        <v>1.005155969666612</v>
       </c>
       <c r="M10">
-        <v>1.041223026660876</v>
+        <v>1.008986894333528</v>
       </c>
       <c r="N10">
-        <v>1.013937786002679</v>
+        <v>1.006970185464042</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022761963723839</v>
+        <v>0.9772117028334243</v>
       </c>
       <c r="D11">
-        <v>1.030704972910832</v>
+        <v>0.9926091744080381</v>
       </c>
       <c r="E11">
-        <v>1.023558355244561</v>
+        <v>0.9882670684123797</v>
       </c>
       <c r="F11">
-        <v>1.037151132757426</v>
+        <v>0.9915152629010515</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02955777241367</v>
+        <v>1.038640886170611</v>
       </c>
       <c r="J11">
-        <v>1.029419508363509</v>
+        <v>1.007564221505559</v>
       </c>
       <c r="K11">
-        <v>1.03429181765108</v>
+        <v>1.007671829915678</v>
       </c>
       <c r="L11">
-        <v>1.027172203264515</v>
+        <v>1.003413695319343</v>
       </c>
       <c r="M11">
-        <v>1.040713974111341</v>
+        <v>1.006598982634354</v>
       </c>
       <c r="N11">
-        <v>1.013823110175228</v>
+        <v>1.006399906480848</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022546818618036</v>
+        <v>0.9760770867727959</v>
       </c>
       <c r="D12">
-        <v>1.030508571183049</v>
+        <v>0.9916537495573602</v>
       </c>
       <c r="E12">
-        <v>1.023377033189978</v>
+        <v>0.9873868590543105</v>
       </c>
       <c r="F12">
-        <v>1.036916362948433</v>
+        <v>0.9903893346219461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029537089576438</v>
+        <v>1.03843591130576</v>
       </c>
       <c r="J12">
-        <v>1.029292314182936</v>
+        <v>1.006929586557453</v>
       </c>
       <c r="K12">
-        <v>1.034141402128782</v>
+        <v>1.006942616662276</v>
       </c>
       <c r="L12">
-        <v>1.027037184359854</v>
+        <v>1.002759763267965</v>
       </c>
       <c r="M12">
-        <v>1.040525001333464</v>
+        <v>1.005703005482156</v>
       </c>
       <c r="N12">
-        <v>1.013780500839205</v>
+        <v>1.006185688766924</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022592963379513</v>
+        <v>0.976321028175409</v>
       </c>
       <c r="D13">
-        <v>1.03055069265457</v>
+        <v>0.9918591042318239</v>
       </c>
       <c r="E13">
-        <v>1.023415920070449</v>
+        <v>0.9875760358402381</v>
       </c>
       <c r="F13">
-        <v>1.036966711570583</v>
+        <v>0.9906313382508228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029541537841923</v>
+        <v>1.038480068635766</v>
       </c>
       <c r="J13">
-        <v>1.029319598463531</v>
+        <v>1.007066040774491</v>
       </c>
       <c r="K13">
-        <v>1.034173664918809</v>
+        <v>1.007099386326478</v>
       </c>
       <c r="L13">
-        <v>1.027066144692603</v>
+        <v>1.002900345262172</v>
       </c>
       <c r="M13">
-        <v>1.040565531543307</v>
+        <v>1.005895609782839</v>
       </c>
       <c r="N13">
-        <v>1.013789641295895</v>
+        <v>1.006231748988733</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022744177693325</v>
+        <v>0.9771181677317738</v>
       </c>
       <c r="D14">
-        <v>1.030688734964684</v>
+        <v>0.9925303841410719</v>
       </c>
       <c r="E14">
-        <v>1.02354336381151</v>
+        <v>0.988194475767052</v>
       </c>
       <c r="F14">
-        <v>1.037131721971509</v>
+        <v>0.9914224125955248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029556068051163</v>
+        <v>1.038624028162785</v>
       </c>
       <c r="J14">
-        <v>1.029408994768869</v>
+        <v>1.007511907478407</v>
       </c>
       <c r="K14">
-        <v>1.034279383425002</v>
+        <v>1.007611710615969</v>
       </c>
       <c r="L14">
-        <v>1.027161041803997</v>
+        <v>1.003359781003353</v>
       </c>
       <c r="M14">
-        <v>1.040698351269048</v>
+        <v>1.006525106952647</v>
       </c>
       <c r="N14">
-        <v>1.013819588349625</v>
+        <v>1.006382248524736</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022837359251231</v>
+        <v>0.9776076755729121</v>
       </c>
       <c r="D15">
-        <v>1.03077380892809</v>
+        <v>0.9929427805618338</v>
       </c>
       <c r="E15">
-        <v>1.023621907499633</v>
+        <v>0.9885744433727065</v>
       </c>
       <c r="F15">
-        <v>1.037233420454301</v>
+        <v>0.991908399405984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029564986243692</v>
+        <v>1.038712173267426</v>
       </c>
       <c r="J15">
-        <v>1.029464072721145</v>
+        <v>1.007785680526766</v>
       </c>
       <c r="K15">
-        <v>1.034344525480508</v>
+        <v>1.007926348837484</v>
       </c>
       <c r="L15">
-        <v>1.027219515945412</v>
+        <v>1.00364194801926</v>
       </c>
       <c r="M15">
-        <v>1.040780200772182</v>
+        <v>1.006911755584339</v>
       </c>
       <c r="N15">
-        <v>1.013838037925433</v>
+        <v>1.006474656486366</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023379920167769</v>
+        <v>0.9804323025173817</v>
       </c>
       <c r="D16">
-        <v>1.031269303792638</v>
+        <v>0.9953250870670711</v>
       </c>
       <c r="E16">
-        <v>1.024079391068842</v>
+        <v>0.9907699087167452</v>
       </c>
       <c r="F16">
-        <v>1.037825808341151</v>
+        <v>0.9947157707279175</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029616369055383</v>
+        <v>1.039216850930771</v>
       </c>
       <c r="J16">
-        <v>1.029784617814647</v>
+        <v>1.009365031146023</v>
       </c>
       <c r="K16">
-        <v>1.03472376175957</v>
+        <v>1.009742337016207</v>
       </c>
       <c r="L16">
-        <v>1.027559934543811</v>
+        <v>1.005270664959392</v>
       </c>
       <c r="M16">
-        <v>1.041256826426932</v>
+        <v>1.009144133088945</v>
       </c>
       <c r="N16">
-        <v>1.013945394723911</v>
+        <v>1.007007703152047</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023720432806475</v>
+        <v>0.9821830091011375</v>
       </c>
       <c r="D17">
-        <v>1.031580401823241</v>
+        <v>0.9968039175929675</v>
       </c>
       <c r="E17">
-        <v>1.024366643590362</v>
+        <v>0.9921331769546318</v>
       </c>
       <c r="F17">
-        <v>1.03819780029888</v>
+        <v>0.9964584434161841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02964813732107</v>
+        <v>1.039526139630135</v>
       </c>
       <c r="J17">
-        <v>1.029985657770503</v>
+        <v>1.010343515457876</v>
       </c>
       <c r="K17">
-        <v>1.034961717228879</v>
+        <v>1.010868218743689</v>
       </c>
       <c r="L17">
-        <v>1.027773534097992</v>
+        <v>1.006280560532478</v>
       </c>
       <c r="M17">
-        <v>1.041555999090831</v>
+        <v>1.010528855210611</v>
       </c>
       <c r="N17">
-        <v>1.014012712038719</v>
+        <v>1.007337914292328</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023919111948618</v>
+        <v>0.9831967483420458</v>
       </c>
       <c r="D18">
-        <v>1.031761963001058</v>
+        <v>0.9976610308420997</v>
       </c>
       <c r="E18">
-        <v>1.024534295344343</v>
+        <v>0.9929234586157029</v>
       </c>
       <c r="F18">
-        <v>1.038414921495481</v>
+        <v>0.997468478376629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029666500229352</v>
+        <v>1.039703950895702</v>
       </c>
       <c r="J18">
-        <v>1.030102909951584</v>
+        <v>1.010909945079228</v>
       </c>
       <c r="K18">
-        <v>1.035100537630768</v>
+        <v>1.011520260448495</v>
       </c>
       <c r="L18">
-        <v>1.02789814573653</v>
+        <v>1.006865470717987</v>
       </c>
       <c r="M18">
-        <v>1.041730572313065</v>
+        <v>1.011331052726211</v>
       </c>
       <c r="N18">
-        <v>1.014051968018759</v>
+        <v>1.007529054086602</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023986867194393</v>
+        <v>0.9835411663336679</v>
       </c>
       <c r="D19">
-        <v>1.031823888083389</v>
+        <v>0.9979523698040486</v>
       </c>
       <c r="E19">
-        <v>1.024591477545713</v>
+        <v>0.9931921055667089</v>
       </c>
       <c r="F19">
-        <v>1.038488978684883</v>
+        <v>0.997811797649884</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029672733165063</v>
+        <v>1.03976414338688</v>
       </c>
       <c r="J19">
-        <v>1.03014288800872</v>
+        <v>1.011102361555134</v>
       </c>
       <c r="K19">
-        <v>1.035147876000528</v>
+        <v>1.011741808095446</v>
       </c>
       <c r="L19">
-        <v>1.027940638884277</v>
+        <v>1.007064215407022</v>
       </c>
       <c r="M19">
-        <v>1.041790109245549</v>
+        <v>1.011603662639571</v>
       </c>
       <c r="N19">
-        <v>1.014065351741245</v>
+        <v>1.007593981849799</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023683892405252</v>
+        <v>0.9819959463237724</v>
       </c>
       <c r="D20">
-        <v>1.031547013286993</v>
+        <v>0.9966458211203223</v>
       </c>
       <c r="E20">
-        <v>1.024335813528054</v>
+        <v>0.991987419493357</v>
       </c>
       <c r="F20">
-        <v>1.038157874115424</v>
+        <v>0.9962721405301731</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029644746154403</v>
+        <v>1.039493224666024</v>
       </c>
       <c r="J20">
-        <v>1.029964089217392</v>
+        <v>1.010238980565103</v>
       </c>
       <c r="K20">
-        <v>1.034936184263215</v>
+        <v>1.010747907249603</v>
       </c>
       <c r="L20">
-        <v>1.027750614536941</v>
+        <v>1.006172639039678</v>
       </c>
       <c r="M20">
-        <v>1.041523893354208</v>
+        <v>1.010380858114832</v>
       </c>
       <c r="N20">
-        <v>1.014005490462909</v>
+        <v>1.007302638153971</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022699646046828</v>
+        <v>0.976883771972848</v>
       </c>
       <c r="D21">
-        <v>1.03064808045462</v>
+        <v>0.9923329599816871</v>
       </c>
       <c r="E21">
-        <v>1.023505830346454</v>
+        <v>0.9880125849763344</v>
       </c>
       <c r="F21">
-        <v>1.037083124241651</v>
+        <v>0.9911897577595516</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029551796421319</v>
+        <v>1.038581751092163</v>
       </c>
       <c r="J21">
-        <v>1.029382670212461</v>
+        <v>1.007380807255924</v>
       </c>
       <c r="K21">
-        <v>1.034248250833645</v>
+        <v>1.007461057349283</v>
       </c>
       <c r="L21">
-        <v>1.027133095947006</v>
+        <v>1.00322467802116</v>
       </c>
       <c r="M21">
-        <v>1.040659236066358</v>
+        <v>1.006339987606494</v>
       </c>
       <c r="N21">
-        <v>1.013810770061297</v>
+        <v>1.006337996960284</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02208139647598</v>
+        <v>0.9735985869445032</v>
       </c>
       <c r="D22">
-        <v>1.030083824837104</v>
+        <v>0.9895691787123198</v>
       </c>
       <c r="E22">
-        <v>1.02298491966089</v>
+        <v>0.9854668656842057</v>
       </c>
       <c r="F22">
-        <v>1.036408700466659</v>
+        <v>0.9879326719342922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029491854993712</v>
+        <v>1.037984604941489</v>
       </c>
       <c r="J22">
-        <v>1.029017018001763</v>
+        <v>1.005542948667552</v>
       </c>
       <c r="K22">
-        <v>1.033815954242299</v>
+        <v>1.005350143467083</v>
       </c>
       <c r="L22">
-        <v>1.026745050350977</v>
+        <v>1.001331831130411</v>
       </c>
       <c r="M22">
-        <v>1.040116240477362</v>
+        <v>1.003747036196191</v>
       </c>
       <c r="N22">
-        <v>1.013688262992526</v>
+        <v>1.005717604788938</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022409086332849</v>
+        <v>0.9753470595623925</v>
       </c>
       <c r="D23">
-        <v>1.030382857836031</v>
+        <v>0.9910393967202663</v>
       </c>
       <c r="E23">
-        <v>1.023260975291673</v>
+        <v>0.9868209424314029</v>
       </c>
       <c r="F23">
-        <v>1.036766100143251</v>
+        <v>0.9896653340133635</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02952377308486</v>
+        <v>1.03830348086111</v>
       </c>
       <c r="J23">
-        <v>1.029210865380427</v>
+        <v>1.006521203354287</v>
       </c>
       <c r="K23">
-        <v>1.034045100173764</v>
+        <v>1.006473497767013</v>
       </c>
       <c r="L23">
-        <v>1.026950740053507</v>
+        <v>1.00233909559171</v>
       </c>
       <c r="M23">
-        <v>1.040404030717127</v>
+        <v>1.005126709633596</v>
       </c>
       <c r="N23">
-        <v>1.013753213610234</v>
+        <v>1.006047836159418</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023700403242463</v>
+        <v>0.9820804948226769</v>
       </c>
       <c r="D24">
-        <v>1.031562099811399</v>
+        <v>0.9967172749654647</v>
       </c>
       <c r="E24">
-        <v>1.024349743990518</v>
+        <v>0.9920532961005422</v>
       </c>
       <c r="F24">
-        <v>1.038175914592582</v>
+        <v>0.9963563426386859</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029646278992668</v>
+        <v>1.039508105522824</v>
       </c>
       <c r="J24">
-        <v>1.029973835152332</v>
+        <v>1.010286228662224</v>
       </c>
       <c r="K24">
-        <v>1.034947721434242</v>
+        <v>1.010802285230777</v>
       </c>
       <c r="L24">
-        <v>1.027760970830239</v>
+        <v>1.006221416904914</v>
       </c>
       <c r="M24">
-        <v>1.041538400335805</v>
+        <v>1.010447748560372</v>
       </c>
       <c r="N24">
-        <v>1.014008753610247</v>
+        <v>1.007318582448325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025201405476731</v>
+        <v>0.9896050661351864</v>
       </c>
       <c r="D25">
-        <v>1.032934577305623</v>
+        <v>1.003093084231633</v>
       </c>
       <c r="E25">
-        <v>1.025617203054928</v>
+        <v>0.9979344569750308</v>
       </c>
       <c r="F25">
-        <v>1.039817591327277</v>
+        <v>1.003869975368341</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029781887672494</v>
+        <v>1.0408046542253</v>
       </c>
       <c r="J25">
-        <v>1.030858782281178</v>
+        <v>1.014487397846747</v>
       </c>
       <c r="K25">
-        <v>1.035996139111766</v>
+        <v>1.015643573064047</v>
       </c>
       <c r="L25">
-        <v>1.028702081649963</v>
+        <v>1.010564922687778</v>
       </c>
       <c r="M25">
-        <v>1.042857547762743</v>
+        <v>1.01640851054594</v>
       </c>
       <c r="N25">
-        <v>1.014304936094387</v>
+        <v>1.008735967248844</v>
       </c>
     </row>
   </sheetData>
